--- a/resultsDump/featureTTestResults.xlsx
+++ b/resultsDump/featureTTestResults.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="29">
   <si>
     <t>rhyme</t>
   </si>
@@ -98,6 +98,9 @@
   </si>
   <si>
     <t>yngve</t>
+  </si>
+  <si>
+    <t>schcount</t>
   </si>
 </sst>
 </file>
@@ -455,10 +458,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AE15"/>
+  <dimension ref="A1:AE17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+      <selection activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -940,109 +943,144 @@
         <v>0.2437</v>
       </c>
     </row>
-    <row r="14" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+    <row r="13" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>28</v>
+      </c>
+      <c r="B13" s="2">
+        <v>1</v>
+      </c>
+      <c r="C13" s="1">
+        <v>5.8983000000000003E-7</v>
+      </c>
+      <c r="D13" s="2">
+        <v>1</v>
+      </c>
+      <c r="E13">
+        <v>1.6000000000000001E-3</v>
+      </c>
+      <c r="F13" s="2">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>5.3E-3</v>
+      </c>
+      <c r="H13" s="2">
+        <v>1</v>
+      </c>
+      <c r="I13" s="1">
+        <v>1.5543999999999999E-4</v>
+      </c>
+      <c r="J13" s="2">
+        <v>1</v>
+      </c>
+      <c r="K13" s="1">
+        <v>6.016E-5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
         <v>26</v>
       </c>
-      <c r="B14" s="2">
-        <v>1</v>
-      </c>
-      <c r="C14" s="1">
+      <c r="B16" s="2">
+        <v>1</v>
+      </c>
+      <c r="C16" s="1">
         <v>1.8434E-5</v>
       </c>
-      <c r="D14" s="2">
-        <v>1</v>
-      </c>
-      <c r="E14" s="1">
+      <c r="D16" s="2">
+        <v>1</v>
+      </c>
+      <c r="E16" s="1">
         <v>1.4721E-5</v>
       </c>
-      <c r="F14" s="2">
-        <v>1</v>
-      </c>
-      <c r="G14">
+      <c r="F16" s="2">
+        <v>1</v>
+      </c>
+      <c r="G16">
         <v>5.1000000000000004E-3</v>
       </c>
-      <c r="H14">
-        <v>0</v>
-      </c>
-      <c r="I14">
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16">
         <v>0.37890000000000001</v>
       </c>
-      <c r="J14">
-        <v>0</v>
-      </c>
-      <c r="K14">
+      <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="K16">
         <v>0.83650000000000002</v>
       </c>
-      <c r="L14">
-        <v>0</v>
-      </c>
-      <c r="M14">
+      <c r="L16">
+        <v>0</v>
+      </c>
+      <c r="M16">
         <v>0.28120000000000001</v>
       </c>
-      <c r="N14">
-        <v>0</v>
-      </c>
-      <c r="O14">
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16">
         <v>0.52210000000000001</v>
       </c>
-      <c r="P14">
-        <v>0</v>
-      </c>
-      <c r="Q14">
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
         <v>0.66500000000000004</v>
       </c>
     </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
         <v>27</v>
       </c>
-      <c r="B15" s="2">
-        <v>1</v>
-      </c>
-      <c r="C15" s="1">
+      <c r="B17" s="2">
+        <v>1</v>
+      </c>
+      <c r="C17" s="1">
         <v>5.5309999999999995E-4</v>
       </c>
-      <c r="D15">
-        <v>0</v>
-      </c>
-      <c r="E15">
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
         <v>0.81259999999999999</v>
       </c>
-      <c r="F15" s="2">
-        <v>1</v>
-      </c>
-      <c r="G15">
+      <c r="F17" s="2">
+        <v>1</v>
+      </c>
+      <c r="G17">
         <v>2.52E-2</v>
       </c>
-      <c r="H15">
-        <v>0</v>
-      </c>
-      <c r="I15">
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
         <v>0.87490000000000001</v>
       </c>
-      <c r="J15" s="2">
-        <v>1</v>
-      </c>
-      <c r="K15">
+      <c r="J17" s="2">
+        <v>1</v>
+      </c>
+      <c r="K17">
         <v>4.6300000000000001E-2</v>
       </c>
-      <c r="L15">
-        <v>0</v>
-      </c>
-      <c r="M15">
+      <c r="L17">
+        <v>0</v>
+      </c>
+      <c r="M17">
         <v>0.61329999999999996</v>
       </c>
-      <c r="N15">
-        <v>0</v>
-      </c>
-      <c r="O15">
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17">
         <v>0.27860000000000001</v>
       </c>
-      <c r="P15">
-        <v>0</v>
-      </c>
-      <c r="Q15">
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
         <v>0.38929999999999998</v>
       </c>
     </row>

--- a/resultsDump/featureTTestResults.xlsx
+++ b/resultsDump/featureTTestResults.xlsx
@@ -149,10 +149,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
+    <xf numFmtId="11" fontId="1" fillId="2" borderId="0" xfId="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Good" xfId="1" builtinId="26"/>
@@ -461,7 +462,7 @@
   <dimension ref="A1:AE17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L6" sqref="L6"/>
+      <selection activeCell="N10" sqref="N10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -977,6 +978,18 @@
       <c r="K13" s="1">
         <v>6.016E-5</v>
       </c>
+      <c r="L13" s="2">
+        <v>1</v>
+      </c>
+      <c r="M13" s="1">
+        <v>1.0011E-4</v>
+      </c>
+      <c r="N13" s="3">
+        <v>1</v>
+      </c>
+      <c r="O13">
+        <v>3.5000000000000001E-3</v>
+      </c>
     </row>
     <row r="16" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A16" t="s">

--- a/resultsDump/featureTTestResults.xlsx
+++ b/resultsDump/featureTTestResults.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="30">
   <si>
     <t>rhyme</t>
   </si>
@@ -101,6 +101,9 @@
   </si>
   <si>
     <t>schcount</t>
+  </si>
+  <si>
+    <t>cpidr</t>
   </si>
 </sst>
 </file>
@@ -459,10 +462,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AE17"/>
+  <dimension ref="A1:AE18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N10" sqref="N10"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1097,6 +1100,23 @@
         <v>0.38929999999999998</v>
       </c>
     </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>29</v>
+      </c>
+      <c r="B18" s="2">
+        <v>1</v>
+      </c>
+      <c r="C18">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="D18" t="s">
+        <v>14</v>
+      </c>
+      <c r="E18" t="s">
+        <v>14</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/resultsDump/featureTTestResults.xlsx
+++ b/resultsDump/featureTTestResults.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="31">
   <si>
     <t>rhyme</t>
   </si>
@@ -104,6 +104,9 @@
   </si>
   <si>
     <t>cpidr</t>
+  </si>
+  <si>
+    <t>neologism</t>
   </si>
 </sst>
 </file>
@@ -464,8 +467,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AE18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -994,6 +997,17 @@
         <v>3.5000000000000001E-3</v>
       </c>
     </row>
+    <row r="14" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>30</v>
+      </c>
+      <c r="B14" s="2">
+        <v>1</v>
+      </c>
+      <c r="C14">
+        <v>4.4000000000000003E-3</v>
+      </c>
+    </row>
     <row r="16" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>26</v>

--- a/resultsDump/featureTTestResults.xlsx
+++ b/resultsDump/featureTTestResults.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="96">
   <si>
     <t>rhyme</t>
   </si>
@@ -107,6 +107,201 @@
   </si>
   <si>
     <t>neologism</t>
+  </si>
+  <si>
+    <t>LIWC:</t>
+  </si>
+  <si>
+    <t>ingest</t>
+  </si>
+  <si>
+    <t>cause</t>
+  </si>
+  <si>
+    <t>insight</t>
+  </si>
+  <si>
+    <t>cogmech</t>
+  </si>
+  <si>
+    <t>sad</t>
+  </si>
+  <si>
+    <t>inhib</t>
+  </si>
+  <si>
+    <t>certain</t>
+  </si>
+  <si>
+    <t>tentat</t>
+  </si>
+  <si>
+    <t>discrep</t>
+  </si>
+  <si>
+    <t>space</t>
+  </si>
+  <si>
+    <t>time</t>
+  </si>
+  <si>
+    <t>excl</t>
+  </si>
+  <si>
+    <t>incl</t>
+  </si>
+  <si>
+    <t>relativ</t>
+  </si>
+  <si>
+    <t>motion</t>
+  </si>
+  <si>
+    <t>quant</t>
+  </si>
+  <si>
+    <t>number</t>
+  </si>
+  <si>
+    <t>swear</t>
+  </si>
+  <si>
+    <t>funct</t>
+  </si>
+  <si>
+    <t>ppron</t>
+  </si>
+  <si>
+    <t>pronoun</t>
+  </si>
+  <si>
+    <t>we</t>
+  </si>
+  <si>
+    <t>i</t>
+  </si>
+  <si>
+    <t>shehe</t>
+  </si>
+  <si>
+    <t>you</t>
+  </si>
+  <si>
+    <t>ipron</t>
+  </si>
+  <si>
+    <t>they</t>
+  </si>
+  <si>
+    <t>death</t>
+  </si>
+  <si>
+    <t>bio</t>
+  </si>
+  <si>
+    <t>body</t>
+  </si>
+  <si>
+    <t>hear</t>
+  </si>
+  <si>
+    <t>feel</t>
+  </si>
+  <si>
+    <t>percept</t>
+  </si>
+  <si>
+    <t>see</t>
+  </si>
+  <si>
+    <t>filler</t>
+  </si>
+  <si>
+    <t>health</t>
+  </si>
+  <si>
+    <t>sexual</t>
+  </si>
+  <si>
+    <t>social</t>
+  </si>
+  <si>
+    <t>family</t>
+  </si>
+  <si>
+    <t>friend</t>
+  </si>
+  <si>
+    <t>humans</t>
+  </si>
+  <si>
+    <t>affect</t>
+  </si>
+  <si>
+    <t>posemo</t>
+  </si>
+  <si>
+    <t>negemo</t>
+  </si>
+  <si>
+    <t>anx</t>
+  </si>
+  <si>
+    <t>anger</t>
+  </si>
+  <si>
+    <t>assent</t>
+  </si>
+  <si>
+    <t>nonfl</t>
+  </si>
+  <si>
+    <t>verb</t>
+  </si>
+  <si>
+    <t>article</t>
+  </si>
+  <si>
+    <t>past</t>
+  </si>
+  <si>
+    <t>auxverb</t>
+  </si>
+  <si>
+    <t>future</t>
+  </si>
+  <si>
+    <t>present</t>
+  </si>
+  <si>
+    <t>preps</t>
+  </si>
+  <si>
+    <t>adverb</t>
+  </si>
+  <si>
+    <t>negate</t>
+  </si>
+  <si>
+    <t>conj</t>
+  </si>
+  <si>
+    <t>home</t>
+  </si>
+  <si>
+    <t>leisure</t>
+  </si>
+  <si>
+    <t>achieve</t>
+  </si>
+  <si>
+    <t>work</t>
+  </si>
+  <si>
+    <t>relig</t>
+  </si>
+  <si>
+    <t>money</t>
   </si>
 </sst>
 </file>
@@ -465,10 +660,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AE18"/>
+  <dimension ref="A1:BL23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1061,7 +1256,7 @@
         <v>0.66500000000000004</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>27</v>
       </c>
@@ -1114,7 +1309,7 @@
         <v>0.38929999999999998</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>29</v>
       </c>
@@ -1129,6 +1324,455 @@
       </c>
       <c r="E18" t="s">
         <v>14</v>
+      </c>
+    </row>
+    <row r="20" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="21" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>32</v>
+      </c>
+      <c r="B21" t="s">
+        <v>33</v>
+      </c>
+      <c r="C21" t="s">
+        <v>34</v>
+      </c>
+      <c r="D21" t="s">
+        <v>35</v>
+      </c>
+      <c r="E21" t="s">
+        <v>36</v>
+      </c>
+      <c r="F21" t="s">
+        <v>37</v>
+      </c>
+      <c r="G21" t="s">
+        <v>38</v>
+      </c>
+      <c r="H21" t="s">
+        <v>39</v>
+      </c>
+      <c r="I21" t="s">
+        <v>40</v>
+      </c>
+      <c r="J21" t="s">
+        <v>41</v>
+      </c>
+      <c r="K21" t="s">
+        <v>42</v>
+      </c>
+      <c r="L21" t="s">
+        <v>43</v>
+      </c>
+      <c r="M21" t="s">
+        <v>44</v>
+      </c>
+      <c r="N21" t="s">
+        <v>45</v>
+      </c>
+      <c r="O21" t="s">
+        <v>46</v>
+      </c>
+      <c r="P21" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>48</v>
+      </c>
+      <c r="R21" t="s">
+        <v>49</v>
+      </c>
+      <c r="S21" t="s">
+        <v>50</v>
+      </c>
+      <c r="T21" t="s">
+        <v>51</v>
+      </c>
+      <c r="U21" t="s">
+        <v>52</v>
+      </c>
+      <c r="V21" t="s">
+        <v>53</v>
+      </c>
+      <c r="W21" t="s">
+        <v>54</v>
+      </c>
+      <c r="X21" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>56</v>
+      </c>
+      <c r="Z21" t="s">
+        <v>57</v>
+      </c>
+      <c r="AA21" t="s">
+        <v>58</v>
+      </c>
+      <c r="AB21" t="s">
+        <v>59</v>
+      </c>
+      <c r="AC21" t="s">
+        <v>60</v>
+      </c>
+      <c r="AD21" t="s">
+        <v>61</v>
+      </c>
+      <c r="AE21" t="s">
+        <v>62</v>
+      </c>
+      <c r="AF21" t="s">
+        <v>63</v>
+      </c>
+      <c r="AG21" t="s">
+        <v>64</v>
+      </c>
+      <c r="AH21" t="s">
+        <v>65</v>
+      </c>
+      <c r="AI21" t="s">
+        <v>66</v>
+      </c>
+      <c r="AJ21" t="s">
+        <v>67</v>
+      </c>
+      <c r="AK21" t="s">
+        <v>68</v>
+      </c>
+      <c r="AL21" t="s">
+        <v>69</v>
+      </c>
+      <c r="AM21" t="s">
+        <v>70</v>
+      </c>
+      <c r="AN21" t="s">
+        <v>71</v>
+      </c>
+      <c r="AO21" t="s">
+        <v>72</v>
+      </c>
+      <c r="AP21" t="s">
+        <v>73</v>
+      </c>
+      <c r="AQ21" t="s">
+        <v>74</v>
+      </c>
+      <c r="AR21" t="s">
+        <v>75</v>
+      </c>
+      <c r="AS21" t="s">
+        <v>76</v>
+      </c>
+      <c r="AT21" t="s">
+        <v>77</v>
+      </c>
+      <c r="AU21" t="s">
+        <v>78</v>
+      </c>
+      <c r="AV21" t="s">
+        <v>79</v>
+      </c>
+      <c r="AW21" t="s">
+        <v>80</v>
+      </c>
+      <c r="AX21" t="s">
+        <v>81</v>
+      </c>
+      <c r="AY21" t="s">
+        <v>82</v>
+      </c>
+      <c r="AZ21" t="s">
+        <v>83</v>
+      </c>
+      <c r="BA21" t="s">
+        <v>84</v>
+      </c>
+      <c r="BB21" t="s">
+        <v>85</v>
+      </c>
+      <c r="BC21" t="s">
+        <v>86</v>
+      </c>
+      <c r="BD21" t="s">
+        <v>87</v>
+      </c>
+      <c r="BE21" t="s">
+        <v>88</v>
+      </c>
+      <c r="BF21" t="s">
+        <v>89</v>
+      </c>
+      <c r="BG21" t="s">
+        <v>90</v>
+      </c>
+      <c r="BH21" t="s">
+        <v>91</v>
+      </c>
+      <c r="BI21" t="s">
+        <v>92</v>
+      </c>
+      <c r="BJ21" t="s">
+        <v>93</v>
+      </c>
+      <c r="BK21" t="s">
+        <v>94</v>
+      </c>
+      <c r="BL21" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="22" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>4.1000000000000003E-3</v>
+      </c>
+      <c r="B22" s="1">
+        <v>2.2387000000000001E-7</v>
+      </c>
+      <c r="C22" s="1">
+        <v>3.3760999999999998E-10</v>
+      </c>
+      <c r="D22" s="1">
+        <v>7.4881000000000002E-10</v>
+      </c>
+      <c r="E22">
+        <v>0.161</v>
+      </c>
+      <c r="F22">
+        <v>4.1999999999999997E-3</v>
+      </c>
+      <c r="G22" s="1">
+        <v>9.1532000000000007E-6</v>
+      </c>
+      <c r="H22" s="1">
+        <v>4.6294000000000001E-10</v>
+      </c>
+      <c r="I22" s="1">
+        <v>5.3346999999999998E-9</v>
+      </c>
+      <c r="J22">
+        <v>0.75149999999999995</v>
+      </c>
+      <c r="K22">
+        <v>0.3977</v>
+      </c>
+      <c r="L22" s="1">
+        <v>2.4747000000000002E-9</v>
+      </c>
+      <c r="M22" s="1">
+        <v>2.5553000000000001E-5</v>
+      </c>
+      <c r="N22">
+        <v>0.79720000000000002</v>
+      </c>
+      <c r="O22">
+        <v>0.51259999999999994</v>
+      </c>
+      <c r="P22" s="1">
+        <v>1.8673999999999999E-6</v>
+      </c>
+      <c r="Q22">
+        <v>9.1300000000000006E-2</v>
+      </c>
+      <c r="R22">
+        <v>0.60809999999999997</v>
+      </c>
+      <c r="S22" s="1">
+        <v>1.1522000000000001E-8</v>
+      </c>
+      <c r="T22" s="1">
+        <v>1.2431999999999999E-10</v>
+      </c>
+      <c r="U22" s="1">
+        <v>1.9755000000000001E-10</v>
+      </c>
+      <c r="V22">
+        <v>0.74209999999999998</v>
+      </c>
+      <c r="W22" s="1">
+        <v>6.9948000000000005E-10</v>
+      </c>
+      <c r="X22">
+        <v>2.6200000000000001E-2</v>
+      </c>
+      <c r="Y22" s="1">
+        <v>1.3927000000000001E-4</v>
+      </c>
+      <c r="Z22" s="1">
+        <v>1.3591999999999999E-7</v>
+      </c>
+      <c r="AA22" s="1">
+        <v>4.8465000000000001E-6</v>
+      </c>
+      <c r="AB22" s="1">
+        <v>9.7490000000000001E-9</v>
+      </c>
+      <c r="AC22" s="1">
+        <v>1.0748999999999999E-8</v>
+      </c>
+      <c r="AD22">
+        <v>5.8400000000000001E-2</v>
+      </c>
+      <c r="AE22">
+        <v>0.94420000000000004</v>
+      </c>
+      <c r="AF22" s="1">
+        <v>2.2858999999999999E-5</v>
+      </c>
+      <c r="AG22">
+        <v>0.16750000000000001</v>
+      </c>
+      <c r="AH22">
+        <v>9.6699999999999994E-2</v>
+      </c>
+      <c r="AI22">
+        <v>0.14030000000000001</v>
+      </c>
+      <c r="AJ22" s="1">
+        <v>1.8713E-8</v>
+      </c>
+      <c r="AK22">
+        <v>1.4E-3</v>
+      </c>
+      <c r="AL22" s="1">
+        <v>2.1718000000000001E-5</v>
+      </c>
+      <c r="AM22">
+        <v>0.19270000000000001</v>
+      </c>
+      <c r="AN22">
+        <v>0.87919999999999998</v>
+      </c>
+      <c r="AO22">
+        <v>2.6800000000000001E-2</v>
+      </c>
+      <c r="AP22">
+        <v>1.1900000000000001E-2</v>
+      </c>
+      <c r="AQ22">
+        <v>0.27189999999999998</v>
+      </c>
+      <c r="AR22">
+        <v>1.9E-3</v>
+      </c>
+      <c r="AS22" s="1">
+        <v>8.1472999999999998E-9</v>
+      </c>
+      <c r="AT22" s="1">
+        <v>7.6758999999999996E-4</v>
+      </c>
+      <c r="AU22">
+        <v>5.9499999999999997E-2</v>
+      </c>
+      <c r="AV22">
+        <v>0.2616</v>
+      </c>
+      <c r="AW22" s="1">
+        <v>7.5826000000000003E-10</v>
+      </c>
+      <c r="AX22" s="1">
+        <v>8.1291000000000005E-5</v>
+      </c>
+      <c r="AY22" s="1">
+        <v>1.1695E-7</v>
+      </c>
+      <c r="AZ22" s="1">
+        <v>8.1694000000000003E-12</v>
+      </c>
+      <c r="BA22" s="1">
+        <v>1.3022E-5</v>
+      </c>
+      <c r="BB22" s="1">
+        <v>1.951E-9</v>
+      </c>
+      <c r="BC22">
+        <v>2.0999999999999999E-3</v>
+      </c>
+      <c r="BD22" s="1">
+        <v>1.8930000000000001E-7</v>
+      </c>
+      <c r="BE22" s="1">
+        <v>1.0220999999999999E-6</v>
+      </c>
+      <c r="BF22" s="1">
+        <v>6.8888000000000003E-11</v>
+      </c>
+      <c r="BG22">
+        <v>4.1700000000000001E-2</v>
+      </c>
+      <c r="BH22">
+        <v>0.11559999999999999</v>
+      </c>
+      <c r="BI22">
+        <v>0.42730000000000001</v>
+      </c>
+      <c r="BJ22">
+        <v>0.62870000000000004</v>
+      </c>
+      <c r="BK22">
+        <v>1.6999999999999999E-3</v>
+      </c>
+      <c r="BL22">
+        <v>0.1946</v>
+      </c>
+    </row>
+    <row r="23" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="N23">
+        <v>0</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="V23">
+        <v>0</v>
+      </c>
+      <c r="AD23">
+        <v>0</v>
+      </c>
+      <c r="AE23">
+        <v>0</v>
+      </c>
+      <c r="AG23">
+        <v>0</v>
+      </c>
+      <c r="AH23">
+        <v>0</v>
+      </c>
+      <c r="AI23">
+        <v>0</v>
+      </c>
+      <c r="AM23">
+        <v>0</v>
+      </c>
+      <c r="AN23">
+        <v>0</v>
+      </c>
+      <c r="AQ23">
+        <v>0</v>
+      </c>
+      <c r="BH23">
+        <v>0</v>
+      </c>
+      <c r="BI23">
+        <v>0</v>
+      </c>
+      <c r="BJ23">
+        <v>0</v>
+      </c>
+      <c r="BL23">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
